--- a/biology/Médecine/Flacon_de_réactif/Flacon_de_réactif.xlsx
+++ b/biology/Médecine/Flacon_de_réactif/Flacon_de_réactif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flacon_de_r%C3%A9actif</t>
+          <t>Flacon_de_réactif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les flacons de réactifs, également appelés flacons de milieu ou flacons gradués, sont des récipients en verre, en plastique, en borosilicate ou en substances apparentées, et surmontés de bouchons ou bouchons spéciaux. Ils sont destinés à contenir des substances chimiques sous forme liquide ou en poudre pour les laboratoires et stockés dans des armoires ou sur des étagères. Certains flacons de réactifs sont teintés d'ambre (actinique), marron ou rouge pour protéger les composés chimiques photosensibles de la lumière visible, des rayons ultraviolets et infrarouges qui peuvent les altérer; d'autres bouteilles sont teintées en bleu (verre de cobalt) ou en vert uranium à des fins décoratives - essentiellement des ensembles d'apothicaires vintage, datant de siècles où un médecin ou un apothicaire était une figure éminente. Les bouteilles sont dites "graduées" lorsqu'elles ont des marques sur les côtés indiquant la quantité approximative (souvent avec une erreur de 10%) de liquide à un niveau donné dans le récipient. Un flacon de réactif est un type de  verrerie de laboratoire. Le terme " réactif " fait référence à une substance qui fait partie d'une réaction chimique (ou à un ingrédient ), et "milieu"  fait référence au liquide ou au gaz dans lequel une réaction se produit, ou est un outil chimique de traitement tel que (par exemple) un flux . 
 Plusieurs sociétés produisent des flacons de réactifs, notamment Wheaton, Kimble, Corning, Schott AG, entre autres sous les marques Pyrex, Kimax, Duran, Boro et Bomex .
